--- a/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院批捕、决定逮捕件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院批捕、决定逮捕件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,900 +503,440 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473864</v>
+        <v>627642</v>
       </c>
       <c r="C2" t="n">
-        <v>116268</v>
+        <v>139023</v>
       </c>
       <c r="D2" t="n">
-        <v>230110</v>
+        <v>261319</v>
       </c>
       <c r="E2" t="n">
-        <v>456084</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
+        <v>614220</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>31427</v>
+        <v>52270</v>
       </c>
       <c r="H2" t="n">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="I2" t="n">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>60451</v>
+        <v>135980</v>
       </c>
       <c r="K2" t="n">
-        <v>17780</v>
+        <v>13422</v>
       </c>
       <c r="L2" t="n">
-        <v>1258</v>
+        <v>1395</v>
       </c>
       <c r="M2" t="n">
-        <v>17375</v>
+        <v>25031</v>
       </c>
       <c r="N2" t="n">
-        <v>16522</v>
+        <v>12027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559860</v>
+        <v>640567</v>
       </c>
       <c r="C3" t="n">
-        <v>128434</v>
+        <v>142270</v>
       </c>
       <c r="D3" t="n">
-        <v>270697</v>
+        <v>264910</v>
       </c>
       <c r="E3" t="n">
-        <v>542715</v>
+        <v>627570</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>44129</v>
+        <v>54227</v>
       </c>
       <c r="H3" t="n">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="I3" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="J3" t="n">
-        <v>82276</v>
+        <v>139006</v>
       </c>
       <c r="K3" t="n">
-        <v>17145</v>
+        <v>12997</v>
       </c>
       <c r="L3" t="n">
-        <v>1319</v>
+        <v>1393</v>
       </c>
       <c r="M3" t="n">
-        <v>16656</v>
+        <v>26559</v>
       </c>
       <c r="N3" t="n">
-        <v>15826</v>
+        <v>11604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527354</v>
+        <v>680539</v>
       </c>
       <c r="C4" t="n">
-        <v>119452</v>
+        <v>132587</v>
       </c>
       <c r="D4" t="n">
-        <v>267105</v>
+        <v>287195</v>
       </c>
       <c r="E4" t="n">
-        <v>512540</v>
+        <v>666268</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>38836</v>
+        <v>52436</v>
       </c>
       <c r="H4" t="n">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="I4" t="n">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="J4" t="n">
-        <v>72785</v>
+        <v>154398</v>
       </c>
       <c r="K4" t="n">
-        <v>14814</v>
+        <v>14271</v>
       </c>
       <c r="L4" t="n">
-        <v>984</v>
+        <v>1566</v>
       </c>
       <c r="M4" t="n">
-        <v>13974</v>
+        <v>38958</v>
       </c>
       <c r="N4" t="n">
-        <v>13830</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>520481</v>
+        <v>642671</v>
       </c>
       <c r="C5" t="n">
-        <v>119160</v>
+        <v>125158</v>
       </c>
       <c r="D5" t="n">
-        <v>262134</v>
-      </c>
-      <c r="E5" t="n">
-        <v>505732</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+        <v>255104</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>39641</v>
-      </c>
-      <c r="H5" t="n">
-        <v>180</v>
-      </c>
+        <v>46974</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J5" t="n">
-        <v>71981</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14749</v>
-      </c>
+        <v>168062</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1158</v>
+        <v>1529</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>32146</v>
       </c>
       <c r="N5" t="n">
-        <v>13591</v>
+        <v>12963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>558939</v>
+        <v>658210</v>
       </c>
       <c r="C6" t="n">
-        <v>123410</v>
+        <v>120412</v>
       </c>
       <c r="D6" t="n">
-        <v>280802</v>
-      </c>
-      <c r="E6" t="n">
-        <v>543335</v>
-      </c>
+        <v>244477</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>47365</v>
-      </c>
-      <c r="H6" t="n">
-        <v>261</v>
-      </c>
+        <v>49974</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="J6" t="n">
-        <v>78282</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15604</v>
-      </c>
+        <v>186853</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1361</v>
+        <v>1810</v>
       </c>
       <c r="M6" t="n">
-        <v>13047</v>
+        <v>38160</v>
       </c>
       <c r="N6" t="n">
-        <v>14243</v>
+        <v>15728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>581448</v>
+        <v>665305</v>
       </c>
       <c r="C7" t="n">
-        <v>126161</v>
+        <v>112123</v>
       </c>
       <c r="D7" t="n">
-        <v>293275</v>
-      </c>
-      <c r="E7" t="n">
-        <v>566949</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
+        <v>244382</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>49190</v>
-      </c>
-      <c r="H7" t="n">
-        <v>185</v>
-      </c>
+        <v>48165</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="J7" t="n">
-        <v>84163</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14499</v>
-      </c>
+        <v>202072</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1241</v>
+        <v>1592</v>
       </c>
       <c r="M7" t="n">
-        <v>13766</v>
+        <v>40139</v>
       </c>
       <c r="N7" t="n">
-        <v>13258</v>
+        <v>16103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>588516</v>
+        <v>631211</v>
       </c>
       <c r="C8" t="n">
-        <v>125589</v>
+        <v>104366</v>
       </c>
       <c r="D8" t="n">
-        <v>290021</v>
-      </c>
-      <c r="E8" t="n">
-        <v>574619</v>
-      </c>
+        <v>247267</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>52563</v>
-      </c>
-      <c r="H8" t="n">
-        <v>292</v>
-      </c>
+        <v>49793</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="J8" t="n">
-        <v>90502</v>
-      </c>
-      <c r="K8" t="n">
-        <v>13897</v>
-      </c>
+        <v>180578</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1272</v>
+        <v>1314</v>
       </c>
       <c r="M8" t="n">
-        <v>15438</v>
+        <v>36226</v>
       </c>
       <c r="N8" t="n">
-        <v>12625</v>
+        <v>11039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>606368</v>
+        <v>764878</v>
       </c>
       <c r="C9" t="n">
-        <v>127240</v>
+        <v>113127</v>
       </c>
       <c r="D9" t="n">
-        <v>292745</v>
-      </c>
-      <c r="E9" t="n">
-        <v>591510</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
+        <v>256261</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>54150</v>
-      </c>
-      <c r="H9" t="n">
-        <v>283</v>
-      </c>
+        <v>103020</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="J9" t="n">
-        <v>98861</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14858</v>
-      </c>
+        <v>242052</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1397</v>
+        <v>1039</v>
       </c>
       <c r="M9" t="n">
-        <v>18009</v>
+        <v>39115</v>
       </c>
       <c r="N9" t="n">
-        <v>13461</v>
+        <v>9922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>632253</v>
+        <v>714896</v>
       </c>
       <c r="C10" t="n">
-        <v>131667</v>
+        <v>116385</v>
       </c>
       <c r="D10" t="n">
-        <v>301393</v>
-      </c>
-      <c r="E10" t="n">
-        <v>616581</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
+        <v>249595</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>53523</v>
-      </c>
-      <c r="H10" t="n">
-        <v>585</v>
-      </c>
+        <v>62044</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="J10" t="n">
-        <v>109485</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15672</v>
-      </c>
+        <v>235745</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1708</v>
+        <v>390</v>
       </c>
       <c r="M10" t="n">
-        <v>19748</v>
+        <v>45738</v>
       </c>
       <c r="N10" t="n">
-        <v>13964</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>633118</v>
+        <v>750262</v>
       </c>
       <c r="C11" t="n">
-        <v>139807</v>
+        <v>124521</v>
       </c>
       <c r="D11" t="n">
-        <v>277346</v>
-      </c>
-      <c r="E11" t="n">
-        <v>617847</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
+        <v>261953</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>50556</v>
-      </c>
-      <c r="H11" t="n">
-        <v>484</v>
-      </c>
-      <c r="I11" t="n">
-        <v>192</v>
-      </c>
+        <v>47918</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>126304</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15271</v>
-      </c>
+        <v>249922</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1571</v>
+        <v>4526</v>
       </c>
       <c r="M11" t="n">
-        <v>23155</v>
+        <v>57317</v>
       </c>
       <c r="N11" t="n">
-        <v>13700</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627642</v>
+        <v>524855</v>
       </c>
       <c r="C12" t="n">
-        <v>139023</v>
+        <v>89362</v>
       </c>
       <c r="D12" t="n">
-        <v>261319</v>
-      </c>
-      <c r="E12" t="n">
-        <v>614220</v>
-      </c>
+        <v>186935</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>52270</v>
-      </c>
-      <c r="H12" t="n">
-        <v>424</v>
-      </c>
-      <c r="I12" t="n">
-        <v>173</v>
-      </c>
+        <v>28118</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>135980</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13422</v>
-      </c>
+        <v>173219</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1395</v>
+        <v>944</v>
       </c>
       <c r="M12" t="n">
-        <v>25031</v>
+        <v>39059</v>
       </c>
       <c r="N12" t="n">
-        <v>12027</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>640567</v>
-      </c>
-      <c r="C13" t="n">
-        <v>142270</v>
-      </c>
-      <c r="D13" t="n">
-        <v>264910</v>
-      </c>
-      <c r="E13" t="n">
-        <v>627570</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>54227</v>
-      </c>
-      <c r="H13" t="n">
-        <v>405</v>
-      </c>
-      <c r="I13" t="n">
-        <v>190</v>
-      </c>
-      <c r="J13" t="n">
-        <v>139006</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12997</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1393</v>
-      </c>
-      <c r="M13" t="n">
-        <v>26559</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11604</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>680539</v>
-      </c>
-      <c r="C14" t="n">
-        <v>132587</v>
-      </c>
-      <c r="D14" t="n">
-        <v>287195</v>
-      </c>
-      <c r="E14" t="n">
-        <v>666268</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>52436</v>
-      </c>
-      <c r="H14" t="n">
-        <v>474</v>
-      </c>
-      <c r="I14" t="n">
-        <v>219</v>
-      </c>
-      <c r="J14" t="n">
-        <v>154398</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14271</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1566</v>
-      </c>
-      <c r="M14" t="n">
-        <v>38958</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12705</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>642671</v>
-      </c>
-      <c r="C15" t="n">
-        <v>125158</v>
-      </c>
-      <c r="D15" t="n">
-        <v>255104</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>46974</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>203</v>
-      </c>
-      <c r="J15" t="n">
-        <v>168062</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1529</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32146</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12963</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>658210</v>
-      </c>
-      <c r="C16" t="n">
-        <v>120412</v>
-      </c>
-      <c r="D16" t="n">
-        <v>244477</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>49974</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>184</v>
-      </c>
-      <c r="J16" t="n">
-        <v>186853</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1810</v>
-      </c>
-      <c r="M16" t="n">
-        <v>38160</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15728</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>665305</v>
-      </c>
-      <c r="C17" t="n">
-        <v>112123</v>
-      </c>
-      <c r="D17" t="n">
-        <v>244382</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>48165</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>202072</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1592</v>
-      </c>
-      <c r="M17" t="n">
-        <v>40139</v>
-      </c>
-      <c r="N17" t="n">
-        <v>16103</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>631211</v>
-      </c>
-      <c r="C18" t="n">
-        <v>104366</v>
-      </c>
-      <c r="D18" t="n">
-        <v>247267</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>49793</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>169</v>
-      </c>
-      <c r="J18" t="n">
-        <v>180578</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1314</v>
-      </c>
-      <c r="M18" t="n">
-        <v>36226</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11039</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>764878</v>
-      </c>
-      <c r="C19" t="n">
-        <v>113127</v>
-      </c>
-      <c r="D19" t="n">
-        <v>256261</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>103020</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>179</v>
-      </c>
-      <c r="J19" t="n">
-        <v>242052</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1039</v>
-      </c>
-      <c r="M19" t="n">
-        <v>39115</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9922</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>714896</v>
-      </c>
-      <c r="C20" t="n">
-        <v>116385</v>
-      </c>
-      <c r="D20" t="n">
-        <v>249595</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>62044</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>240</v>
-      </c>
-      <c r="J20" t="n">
-        <v>235745</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>390</v>
-      </c>
-      <c r="M20" t="n">
-        <v>45738</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4535</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>750262</v>
-      </c>
-      <c r="C21" t="n">
-        <v>124521</v>
-      </c>
-      <c r="D21" t="n">
-        <v>261953</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>47918</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>249922</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>4526</v>
-      </c>
-      <c r="M21" t="n">
-        <v>57317</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>524855</v>
-      </c>
-      <c r="C22" t="n">
-        <v>89362</v>
-      </c>
-      <c r="D22" t="n">
-        <v>186935</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>28118</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>173219</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>944</v>
-      </c>
-      <c r="M22" t="n">
-        <v>39059</v>
-      </c>
-      <c r="N22" t="n">
         <v>6530</v>
       </c>
     </row>
